--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -396,6 +411,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -481,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -493,6 +511,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,245 +533,284 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -774,2465 +832,2837 @@
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,67 +32,70 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -833,2836 +836,2836 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -416,7 +416,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +514,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1192,7 +1198,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1284,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
@@ -1399,7 +1405,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>42</v>
@@ -1471,10 +1477,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,13 +1494,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>90</v>
@@ -1508,22 +1514,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>32</v>
@@ -1531,22 +1537,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>32</v>
@@ -1554,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,22 +1675,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>32</v>
@@ -1692,22 +1698,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>32</v>
@@ -1715,22 +1721,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>32</v>
@@ -1738,22 +1744,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>32</v>
@@ -1761,22 +1767,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,22 +1859,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
@@ -1922,22 +1928,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>32</v>
@@ -1945,22 +1951,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>32</v>
@@ -1968,22 +1974,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,22 +2020,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,22 +2066,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,22 +2181,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,22 +2273,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2290,22 +2296,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,22 +2365,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>32</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,22 +2411,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,22 +2480,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2497,22 +2503,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2523,16 +2529,16 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2546,7 +2552,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2555,7 +2561,7 @@
         <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2569,16 +2575,16 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,10 +2595,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2601,7 +2607,7 @@
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,16 +2664,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>104</v>
@@ -2681,10 +2687,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2693,7 +2699,7 @@
         <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,10 +2848,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2854,7 +2860,7 @@
         <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,10 +2871,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2877,7 +2883,7 @@
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,10 +2894,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2900,7 +2906,7 @@
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,599 +3078,691 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -422,7 +422,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -520,7 +523,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3656,7 +3659,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -3676,10 +3679,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3688,7 +3691,7 @@
         <v>89</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3699,10 +3702,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3711,7 +3714,7 @@
         <v>89</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>22</v>
@@ -3722,10 +3725,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3734,7 +3737,7 @@
         <v>30</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3757,7 +3760,7 @@
         <v>101</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3659,7 +3656,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -3679,10 +3676,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3691,7 +3688,7 @@
         <v>89</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3702,10 +3699,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3714,7 +3711,7 @@
         <v>89</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>22</v>
@@ -3725,10 +3722,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3737,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3748,10 +3745,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3760,7 +3757,7 @@
         <v>101</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3656,7 +3659,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -3676,10 +3679,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3688,7 +3691,7 @@
         <v>89</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3699,10 +3702,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3711,7 +3714,7 @@
         <v>89</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>22</v>
@@ -3722,10 +3725,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3734,7 +3737,7 @@
         <v>30</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3745,10 +3748,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3757,7 +3760,7 @@
         <v>101</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>22,7</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -511,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -521,7 +551,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2069,22 +2099,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2092,22 +2122,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2115,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,22 +2168,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2161,22 +2191,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>32</v>
@@ -2184,22 +2214,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2207,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,22 +2260,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2253,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,22 +2306,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2299,22 +2329,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2322,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,22 +2375,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2368,19 +2398,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,22 +2421,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>32</v>
@@ -2414,22 +2444,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2437,22 +2467,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>32</v>
@@ -2460,19 +2490,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,22 +2513,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2506,22 +2536,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2529,19 +2559,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,22 +2582,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2575,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,22 +2628,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2621,22 +2651,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2644,19 +2674,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,22 +2766,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2759,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,22 +2812,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>32</v>
@@ -2805,22 +2835,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2828,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,16 +2996,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>116</v>
@@ -2989,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3134,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,622 +3180,944 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -3186,7 +3186,7 @@
         <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1047,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>42</v>
@@ -1139,7 +1145,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>42</v>
@@ -1254,7 +1260,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>42</v>
@@ -1277,7 +1283,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>42</v>
@@ -1346,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -1461,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>42</v>
@@ -1533,10 +1539,10 @@
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1550,13 +1556,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>92</v>
@@ -1570,22 +1576,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>32</v>
@@ -1593,22 +1599,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>32</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,22 +1737,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>32</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
@@ -1800,22 +1806,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1823,22 +1829,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1846,22 +1852,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>32</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
@@ -2007,22 +2013,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>32</v>
@@ -2030,22 +2036,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>32</v>
@@ -2053,22 +2059,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,22 +2128,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
@@ -2191,22 +2197,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>32</v>
@@ -2214,22 +2220,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2237,22 +2243,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2260,22 +2266,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,22 +2381,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>32</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2421,22 +2427,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>32</v>
@@ -2444,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2490,22 +2496,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2513,22 +2519,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,22 +2588,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2628,22 +2634,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>20</v>
@@ -2674,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2697,22 +2703,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2720,22 +2726,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2766,22 +2772,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2789,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2812,22 +2818,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>32</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2861,7 +2867,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2870,7 +2876,7 @@
         <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2907,19 +2913,19 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2927,10 +2933,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2939,7 +2945,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,16 +3002,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>116</v>
@@ -3019,19 +3025,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3071,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3094,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3140,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3163,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,19 +3186,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3232,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,10 +3301,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3307,7 +3313,7 @@
         <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3318,10 +3324,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3330,7 +3336,7 @@
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,19 +3370,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3387,19 +3393,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3410,19 +3416,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3433,19 +3439,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3456,19 +3462,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3479,19 +3485,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3502,622 +3508,737 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1329,7 +1335,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
@@ -1352,7 +1358,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -1490,7 +1496,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -1562,10 +1568,10 @@
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1579,13 +1585,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>94</v>
@@ -1599,22 +1605,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>32</v>
@@ -1622,22 +1628,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,22 +1789,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>32</v>
@@ -1806,22 +1812,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1829,22 +1835,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -1875,22 +1881,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,22 +1950,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>32</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2059,22 +2065,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>32</v>
@@ -2082,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>32</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,22 +2180,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -2243,22 +2249,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>32</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>32</v>
@@ -2289,22 +2295,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2312,22 +2318,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,22 +2456,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>32</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -2519,22 +2525,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>32</v>
@@ -2542,22 +2548,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2565,22 +2571,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,22 +2640,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2657,22 +2663,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>32</v>
@@ -2680,22 +2686,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2703,22 +2709,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,22 +2778,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2795,22 +2801,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,22 +2847,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,22 +2893,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>20</v>
@@ -2936,7 +2942,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2945,7 +2951,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2965,19 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>32</v>
@@ -2982,19 +2988,19 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -3002,10 +3008,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3014,7 +3020,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,10 +3123,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -3129,7 +3135,7 @@
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3301,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3330,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3376,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,10 +3399,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3405,7 +3411,7 @@
         <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,10 +3422,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3428,7 +3434,7 @@
         <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3468,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3491,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3514,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3537,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3560,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3583,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3600,645 +3606,737 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B160" s="2" t="s">
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1519,7 +1525,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>42</v>
@@ -1591,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1608,13 +1614,13 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>96</v>
@@ -1628,22 +1634,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>32</v>
@@ -1651,22 +1657,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,22 +1818,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>32</v>
@@ -1835,22 +1841,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1858,22 +1864,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>32</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>20</v>
@@ -1904,22 +1910,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,22 +1956,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>32</v>
@@ -1973,22 +1979,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>32</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -2111,22 +2117,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>32</v>
@@ -2134,22 +2140,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>32</v>
@@ -2157,22 +2163,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>32</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2232,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>32</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -2295,22 +2301,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>32</v>
@@ -2318,22 +2324,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>32</v>
@@ -2341,22 +2347,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>32</v>
@@ -2364,22 +2370,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>32</v>
@@ -2387,19 +2393,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,22 +2508,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>32</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
@@ -2571,22 +2577,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>32</v>
@@ -2594,22 +2600,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2617,22 +2623,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2640,22 +2646,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>32</v>
@@ -2663,19 +2669,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2692,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>20</v>
@@ -2709,22 +2715,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2732,22 +2738,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2755,22 +2761,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2778,22 +2784,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2824,19 +2830,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2847,22 +2853,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2870,22 +2876,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>32</v>
@@ -2893,19 +2899,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,22 +2922,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -2939,19 +2945,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,22 +2968,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>32</v>
@@ -2985,19 +2991,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -3011,7 +3017,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3020,7 +3026,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3040,19 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>32</v>
@@ -3057,19 +3063,19 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3077,10 +3083,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3089,7 +3095,7 @@
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3106,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,10 +3198,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3204,7 +3210,7 @@
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3221,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3290,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3313,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3336,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3359,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3405,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3428,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3451,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,10 +3474,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3480,7 +3486,7 @@
         <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3491,10 +3497,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3503,7 +3509,7 @@
         <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3514,19 +3520,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,19 +3566,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3583,19 +3589,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3606,19 +3612,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3629,19 +3635,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3652,19 +3658,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3675,668 +3681,760 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B164" s="2" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -206,9 +296,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +398,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,9 +461,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -473,9 +566,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -501,6 +591,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -559,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
@@ -993,22 +1089,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -1016,22 +1112,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1039,22 +1135,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -1062,22 +1158,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1085,22 +1181,22 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1108,22 +1204,22 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1131,22 +1227,22 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1154,22 +1250,22 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1177,22 +1273,22 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1200,22 +1296,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1223,22 +1319,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1246,22 +1342,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1269,39 +1365,39 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1312,19 +1408,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1335,19 +1431,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1358,19 +1454,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1381,19 +1477,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1404,19 +1500,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1427,19 +1523,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1450,19 +1546,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1569,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1592,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1615,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1638,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1661,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1684,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1707,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1730,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1657,22 +1753,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>32</v>
@@ -1680,19 +1776,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1799,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1822,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1845,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1868,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1891,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1914,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1841,22 +1937,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>32</v>
@@ -1864,19 +1960,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1887,22 +1983,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>32</v>
@@ -1910,22 +2006,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>32</v>
@@ -1933,19 +2029,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1956,620 +2052,620 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2577,19 +2673,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,22 +2696,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>32</v>
@@ -2623,22 +2719,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>32</v>
@@ -2646,19 +2742,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2765,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2692,22 +2788,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>32</v>
@@ -2715,22 +2811,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2738,22 +2834,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2761,22 +2857,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2784,22 +2880,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>32</v>
@@ -2807,19 +2903,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2830,19 +2926,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2853,22 +2949,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2876,19 +2972,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2899,22 +2995,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -2922,19 +3018,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2945,22 +3041,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -2968,19 +3064,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2991,19 +3087,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -3014,19 +3110,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3133,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3060,19 +3156,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>20</v>
@@ -3083,19 +3179,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3106,19 +3202,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3129,19 +3225,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3248,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3175,22 +3271,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>32</v>
@@ -3198,19 +3294,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3221,22 +3317,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>32</v>
@@ -3244,22 +3340,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -3267,22 +3363,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>32</v>
@@ -3290,19 +3386,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3313,19 +3409,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3336,19 +3432,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3359,19 +3455,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3382,19 +3478,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3405,19 +3501,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3524,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3451,22 +3547,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3474,19 +3570,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3497,22 +3593,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>32</v>
@@ -3520,22 +3616,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3543,19 +3639,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3566,19 +3662,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3589,22 +3685,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>32</v>
@@ -3612,22 +3708,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3635,19 +3731,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3658,22 +3754,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -3681,19 +3777,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3704,22 +3800,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>32</v>
@@ -3727,19 +3823,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3750,617 +3846,617 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4371,22 +4467,22 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>32</v>
@@ -4394,19 +4490,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4417,24 +4513,944 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -655,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2377,7 +2377,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2386,7 +2386,7 @@
         <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2409,7 +2409,7 @@
         <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2423,7 +2423,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2432,7 @@
         <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2446,7 +2446,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2455,7 +2455,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2469,7 +2469,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2478,7 +2478,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2492,7 +2492,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2501,7 +2501,7 @@
         <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,7 +2515,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2524,7 +2524,7 @@
         <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2538,7 +2538,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2547,7 +2547,7 @@
         <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2561,7 +2561,7 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2570,7 +2570,7 @@
         <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2584,7 +2584,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2593,7 +2593,7 @@
         <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2607,7 +2607,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2616,7 +2616,7 @@
         <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2627,25 +2627,25 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -2653,19 +2653,19 @@
         <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>32</v>
@@ -2676,16 +2676,16 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2722,7 +2722,7 @@
         <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -2731,7 +2731,7 @@
         <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2745,7 +2745,7 @@
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -2754,7 +2754,7 @@
         <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2768,7 +2768,7 @@
         <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2777,7 +2777,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2791,16 +2791,16 @@
         <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2814,7 +2814,7 @@
         <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2823,10 +2823,10 @@
         <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>32</v>
@@ -2837,7 +2837,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2846,10 +2846,10 @@
         <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>32</v>
@@ -2860,7 +2860,7 @@
         <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2869,10 +2869,10 @@
         <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>32</v>
@@ -2883,7 +2883,7 @@
         <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2892,7 +2892,7 @@
         <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -2906,19 +2906,19 @@
         <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>32</v>
@@ -2929,7 +2929,7 @@
         <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -2938,7 +2938,7 @@
         <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2952,19 @@
         <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>32</v>
@@ -2975,7 +2975,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2984,7 +2984,7 @@
         <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>20</v>
@@ -2998,7 +2998,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3007,10 +3007,10 @@
         <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>32</v>
@@ -3021,7 +3021,7 @@
         <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3030,10 +3030,10 @@
         <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>32</v>
@@ -3044,7 +3044,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3053,10 +3053,10 @@
         <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>32</v>
@@ -3067,7 +3067,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3076,10 +3076,10 @@
         <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>32</v>
@@ -3090,7 +3090,7 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3099,10 +3099,10 @@
         <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>32</v>
@@ -3113,7 +3113,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3122,10 +3122,10 @@
         <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>32</v>
@@ -3136,7 +3136,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3145,7 +3145,7 @@
         <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3159,19 +3159,19 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>32</v>
@@ -3182,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -3191,7 +3191,7 @@
         <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3205,7 +3205,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3214,7 +3214,7 @@
         <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,16 +3228,16 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3251,7 +3251,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3260,10 +3260,10 @@
         <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>32</v>
@@ -3274,7 +3274,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3283,10 +3283,10 @@
         <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>32</v>
@@ -3297,7 +3297,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3306,10 +3306,10 @@
         <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>32</v>
@@ -3320,7 +3320,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3329,7 +3329,7 @@
         <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>20</v>
@@ -3340,22 +3340,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>32</v>
@@ -3366,19 +3366,19 @@
         <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>32</v>
@@ -3389,16 +3389,16 @@
         <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3412,16 +3412,16 @@
         <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -3444,7 +3444,7 @@
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3458,7 +3458,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -3467,7 +3467,7 @@
         <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3481,7 +3481,7 @@
         <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3490,7 +3490,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3504,16 +3504,16 @@
         <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3536,10 +3536,10 @@
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>32</v>
@@ -3550,7 +3550,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3559,10 +3559,10 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3573,7 +3573,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3582,10 +3582,10 @@
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>32</v>
@@ -3596,7 +3596,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3605,7 +3605,7 @@
         <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>20</v>
@@ -3619,19 +3619,19 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>32</v>
@@ -3642,7 +3642,7 @@
         <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -3651,7 +3651,7 @@
         <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3665,19 @@
         <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>32</v>
@@ -3688,7 +3688,7 @@
         <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3697,7 +3697,7 @@
         <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>20</v>
@@ -3711,7 +3711,7 @@
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3720,10 +3720,10 @@
         <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>32</v>
@@ -3734,7 +3734,7 @@
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3743,10 +3743,10 @@
         <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>32</v>
@@ -3757,7 +3757,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3766,10 +3766,10 @@
         <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>32</v>
@@ -3780,7 +3780,7 @@
         <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3789,10 +3789,10 @@
         <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>32</v>
@@ -3803,7 +3803,7 @@
         <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3812,10 +3812,10 @@
         <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>32</v>
@@ -3826,7 +3826,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3835,10 +3835,10 @@
         <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>32</v>
@@ -3849,7 +3849,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3858,7 +3858,7 @@
         <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>20</v>
@@ -3872,19 +3872,19 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>32</v>
@@ -3895,7 +3895,7 @@
         <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3904,7 +3904,7 @@
         <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
@@ -3927,7 +3927,7 @@
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,16 +3941,16 @@
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3973,10 +3973,10 @@
         <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>32</v>
@@ -3987,7 +3987,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3996,10 +3996,10 @@
         <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>32</v>
@@ -4010,7 +4010,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4019,10 +4019,10 @@
         <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>32</v>
@@ -4033,7 +4033,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4042,7 +4042,7 @@
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>20</v>
@@ -4053,22 +4053,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>32</v>
@@ -4079,16 +4079,16 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,16 +4102,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,7 +4125,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -4134,7 +4134,7 @@
         <v>63</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,16 +4148,16 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,16 +4171,16 @@
         <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4194,7 +4194,7 @@
         <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -4203,7 +4203,7 @@
         <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,16 +4217,16 @@
         <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4240,7 +4240,7 @@
         <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -4249,7 +4249,7 @@
         <v>63</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4263,16 +4263,16 @@
         <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,7 +4286,7 @@
         <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -4295,7 +4295,7 @@
         <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,16 +4309,16 @@
         <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4332,7 +4332,7 @@
         <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4341,7 +4341,7 @@
         <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4355,7 +4355,7 @@
         <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4364,7 +4364,7 @@
         <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4378,7 +4378,7 @@
         <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4387,7 +4387,7 @@
         <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4401,16 +4401,16 @@
         <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4424,16 +4424,16 @@
         <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4447,7 +4447,7 @@
         <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4456,7 +4456,7 @@
         <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4470,7 +4470,7 @@
         <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4479,7 +4479,7 @@
         <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4493,7 +4493,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4502,7 +4502,7 @@
         <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4516,16 +4516,16 @@
         <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4539,7 +4539,7 @@
         <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4548,7 +4548,7 @@
         <v>63</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4585,7 +4585,7 @@
         <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
@@ -4594,7 +4594,7 @@
         <v>166</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4608,7 +4608,7 @@
         <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -4617,7 +4617,7 @@
         <v>166</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4631,7 +4631,7 @@
         <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -4640,7 +4640,7 @@
         <v>166</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4654,7 +4654,7 @@
         <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4663,7 +4663,7 @@
         <v>166</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4677,7 +4677,7 @@
         <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4686,7 +4686,7 @@
         <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4700,7 +4700,7 @@
         <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4709,7 +4709,7 @@
         <v>166</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4720,25 +4720,25 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178">
@@ -4746,19 +4746,19 @@
         <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>183</v>
@@ -4769,16 +4769,16 @@
         <v>180</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4792,16 +4792,16 @@
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4815,7 +4815,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
@@ -4824,7 +4824,7 @@
         <v>181</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4838,7 +4838,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4847,7 +4847,7 @@
         <v>181</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4861,7 +4861,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -4870,7 +4870,7 @@
         <v>181</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4884,16 +4884,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4907,7 +4907,7 @@
         <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4916,10 +4916,10 @@
         <v>181</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>183</v>
@@ -4930,7 +4930,7 @@
         <v>180</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4939,10 +4939,10 @@
         <v>181</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>183</v>
@@ -4953,7 +4953,7 @@
         <v>180</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -4962,10 +4962,10 @@
         <v>181</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>183</v>
@@ -4976,7 +4976,7 @@
         <v>180</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4985,7 +4985,7 @@
         <v>181</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>182</v>
@@ -4999,19 +4999,19 @@
         <v>180</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>183</v>
@@ -5022,7 +5022,7 @@
         <v>180</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
@@ -5031,7 +5031,7 @@
         <v>181</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5045,19 +5045,19 @@
         <v>180</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>183</v>
@@ -5068,7 +5068,7 @@
         <v>180</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5077,7 +5077,7 @@
         <v>181</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>182</v>
@@ -5091,7 +5091,7 @@
         <v>180</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -5100,10 +5100,10 @@
         <v>181</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>183</v>
@@ -5114,7 +5114,7 @@
         <v>180</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5123,10 +5123,10 @@
         <v>181</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>183</v>
@@ -5137,7 +5137,7 @@
         <v>180</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5146,10 +5146,10 @@
         <v>181</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>183</v>
@@ -5160,7 +5160,7 @@
         <v>180</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5169,10 +5169,10 @@
         <v>181</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>183</v>
@@ -5183,7 +5183,7 @@
         <v>180</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5192,10 +5192,10 @@
         <v>181</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>183</v>
@@ -5206,7 +5206,7 @@
         <v>180</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5215,10 +5215,10 @@
         <v>181</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>183</v>
@@ -5229,7 +5229,7 @@
         <v>180</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5238,7 +5238,7 @@
         <v>181</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>182</v>
@@ -5252,19 +5252,19 @@
         <v>180</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>183</v>
@@ -5275,7 +5275,7 @@
         <v>180</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
@@ -5284,7 +5284,7 @@
         <v>181</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5298,7 +5298,7 @@
         <v>180</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
@@ -5307,7 +5307,7 @@
         <v>181</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5318,25 +5318,25 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -5344,19 +5344,19 @@
         <v>184</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>32</v>
@@ -5367,19 +5367,19 @@
         <v>184</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>32</v>
@@ -5390,16 +5390,16 @@
         <v>184</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5413,44 +5413,21 @@
         <v>184</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -1713,7 +1713,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>72</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -5002,7 +5002,7 @@
         <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>181</v>
@@ -5025,7 +5025,7 @@
         <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>181</v>
@@ -5034,7 +5034,7 @@
         <v>98</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>183</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
   </si>
   <si>
     <t>Formula</t>
@@ -655,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -787,10 +790,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -810,7 +813,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -833,13 +836,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -856,7 +859,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -879,7 +882,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -902,7 +905,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -925,7 +928,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -948,7 +951,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -970,707 +973,707 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>94</v>
@@ -1679,642 +1682,642 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2323,3112 +2326,3135 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F190" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>32</v>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1532,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>73</v>
@@ -1555,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>73</v>
@@ -1601,7 +1613,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>73</v>
@@ -1624,7 +1636,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>73</v>
@@ -1690,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1699,7 +1711,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1713,7 +1725,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1722,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1736,7 +1748,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1969,7 +1981,7 @@
         <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>73</v>
@@ -1992,7 +2004,7 @@
         <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>73</v>
@@ -2041,10 +2053,10 @@
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2058,16 +2070,16 @@
         <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2078,65 +2090,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2159,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2182,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2205,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2228,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2251,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2274,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2297,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2320,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2343,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2366,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2389,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2412,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2435,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2458,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2481,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2504,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2527,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2550,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2573,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2596,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2619,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2642,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2653,114 +2665,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2768,19 +2780,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2803,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2826,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2837,22 +2849,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2860,22 +2872,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2883,22 +2895,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2906,22 +2918,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2929,19 +2941,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2964,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2987,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -2998,22 +3010,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -3021,22 +3033,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -3044,19 +3056,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3067,19 +3079,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3090,22 +3102,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -3113,22 +3125,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3136,19 +3148,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3159,22 +3171,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3182,22 +3194,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3205,19 +3217,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,22 +3240,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>33</v>
@@ -3251,19 +3263,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3286,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>21</v>
@@ -3297,22 +3309,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>33</v>
@@ -3320,22 +3332,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3343,22 +3355,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3366,22 +3378,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>33</v>
@@ -3389,19 +3401,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3412,22 +3424,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>33</v>
@@ -3435,19 +3447,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3458,22 +3470,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
@@ -3481,22 +3493,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>33</v>
@@ -3504,22 +3516,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>33</v>
@@ -3527,19 +3539,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3550,22 +3562,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>33</v>
@@ -3573,19 +3585,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3596,22 +3608,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>33</v>
@@ -3619,19 +3631,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
@@ -3642,19 +3654,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3665,19 +3677,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3688,22 +3700,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>33</v>
@@ -3711,22 +3723,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>33</v>
@@ -3734,22 +3746,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>33</v>
@@ -3757,22 +3769,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>33</v>
@@ -3780,22 +3792,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>33</v>
@@ -3803,19 +3815,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>21</v>
@@ -3826,19 +3838,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3849,22 +3861,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>33</v>
@@ -3872,19 +3884,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>21</v>
@@ -3895,22 +3907,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>33</v>
@@ -3918,19 +3930,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3941,22 +3953,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>33</v>
@@ -3964,19 +3976,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3999,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>21</v>
@@ -4010,19 +4022,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4045,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>21</v>
@@ -4056,19 +4068,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>21</v>
@@ -4079,19 +4091,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4102,19 +4114,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4125,19 +4137,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4148,19 +4160,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4171,22 +4183,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>33</v>
@@ -4194,19 +4206,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4217,22 +4229,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>33</v>
@@ -4240,22 +4252,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>33</v>
@@ -4263,19 +4275,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4286,19 +4298,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4309,19 +4321,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4332,19 +4344,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4355,19 +4367,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4378,19 +4390,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4401,19 +4413,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4424,10 +4436,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -4436,7 +4448,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4447,19 +4459,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4470,19 +4482,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4493,19 +4505,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4516,19 +4528,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4539,19 +4551,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4562,19 +4574,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4585,19 +4597,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4608,19 +4620,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4631,19 +4643,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4654,19 +4666,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4677,19 +4689,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4700,19 +4712,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4723,19 +4735,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4746,600 +4758,600 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204">
@@ -5347,22 +5359,22 @@
         <v>185</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205">
@@ -5370,22 +5382,22 @@
         <v>185</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="206">
@@ -5393,22 +5405,22 @@
         <v>185</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207">
@@ -5416,22 +5428,22 @@
         <v>185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208">
@@ -5439,21 +5451,251 @@
         <v>185</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>33</v>
       </c>
     </row>
